--- a/data/from paper/fromzhang2021.xlsx
+++ b/data/from paper/fromzhang2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9C6ED-967A-46CB-9984-4A1588698836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC9AA30-01E6-45EB-8831-E92E6D8C7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="3060" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32865" yWindow="2610" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>PDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,119 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2MG72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li S, Guo J, Reva A et al (2018) Methyltransferases of gentamicin biosynthesis. Proc Natl Acad Sci U S A 115:1340–1345. https://doi.org/10.1073/pnas.1711603115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li S, Guo J, Reva A et al (2018) Methyltransferases of gentamicin biosynthesis. Proc Natl Acad Sci U S A 115:1340–1345. https://doi.org/10.1073/pnas.1711603116</t>
+  </si>
+  <si>
+    <t>Li S, Guo J, Reva A et al (2018) Methyltransferases of gentamicin biosynthesis. Proc Natl Acad Sci U S A 115:1340–1345. https://doi.org/10.1073/pnas.1711603117</t>
+  </si>
+  <si>
+    <t>Li S, Guo J, Reva A et al (2018) Methyltransferases of gentamicin biosynthesis. Proc Natl Acad Sci U S A 115:1340–1345. https://doi.org/10.1073/pnas.1711603118</t>
+  </si>
+  <si>
+    <t>Micromonospora echinospora</t>
+  </si>
+  <si>
+    <t>GenL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micromonospora echinospora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0A2I6RLD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3′′-N-methyltransferase GenN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4″-C-methyltransferase GenD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6′-C-methyltransferase GenK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLTAYLRDKGMPAVGLDLNADFNEYLLNRVEIEQVQGPENTHEFTKPFIKQFFLNHITGNYFTETNFE
+QWDLQQQCQVAPESLSIWDPPFPFSYCEFLSILRDEPERVAKLVRDPDANIYHAFYQEKVAGKASELGLM
+GFSIMGYNQVIPALTLGYLMKKENPDLYICWGGPWVTSFADMLIPRLEACPELGELIDALVVREGEEPLL
+KMAEALSRGERPVGIPGGCKPMSEQSVLDTKPVGRKLLLAMSQPRENMPNTHWRIEDGTYERSGDISWVA
+DMNQLPTPDYSDFDLSLYTTFREGQGSLVLQGSRSCYYMKCSFCNAITNFAPWSYRERSTENIQKDIDTF
+LELYPGTVHFDFADAVFPAKRLVELADFFIAKKRPELFWEVDVRFEGNIDKAVLTKMRDSQGTLRFGLET
+ANERLLDLVRKGNRMEVVHRLLQDSRELGYKPFLMTIVGLPTEEREEAEELYQFLSDYHDTVTYQIADFI
+VERNSPIQLRPDDYGIHIDDDEQESFHHNLHFTRRAGYSDEEAQEVYRDILVRTMQRFKGAHEVDVEQER
+SRVAPDDSVYRLSLRAGSFALENYWVKHNNLPFEGLVPIGYKVQQQWTDMTDKGTVFEIDPDIALGALAG
+AGSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q70KE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNALVAAPSVTEGNQVKVFLVKPPIRGCMVEIGRHVPIGLAYVSSALRAAGHETEIFDSL
+AYTEDNHVVPDAELTTIERAKLERHPRWRHIMHWGARTERIEAALAASEADVVGISCMFT
+PYYESAYELARMAKRVLPNAKVIVGGQHGTVAFPHVLEVPEVDAVMLGEAEVTTVALLDA
+FATGRPLTELLGVAFRCGEGLCECATPGTPHIRPRAPFVADLDSLAPPAADQLDFDRYGN
+AVTLITSRGCPFSCSFCTVHATVGKQFRARDPQRVVDEIEHYVNVHGVRRFLVEDDNFTF
+DIERVHAICQEIVRRKLDVRLSLPNGMTVVKLTEDLVESMVSAGFDDLFLGLETTDAARL
+RKMRKGFTSLDKVSAGVALFEKFGLTASAAIIVGLPDQSLDAIVQDAVNLVLAGVEFWTN
+PFYPIYGSPDYQTCLTRGIVDPLTDPALFDQFNFAFANGVLAADELYTAWVGTLAMALWP
+KYVLEGAERREQGPVSAAEAGARLVEHSMAQLDPESPEELPATVRAIRESADGLLALGHP
+LGCVCVMQHVADADKGAGADQFCRFAGDMIAAAIALYSGQPQVSAQVGAQTAGDAEGCSF
+MVRPTGDERIGRIQRRFVELLDENRREAELVTAEAVSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLSISDLRTDWKIFRQTMRDSTLKEALVDSAEYIRIRRHERRERFDERFGTETNGIVGLA
+DIDSIGTHQEEASHYLPTRKQEFDRMMATVGELDHGEHVFVDLGCGKGRVVLLAAEKPYK
+KVIGVDFSPSFISQAKENVERYTGPVATHEIELLAIDAVDFVVPPENLIVYLFSPFGPPV
+FDTVMRNLVAATKKRKQKITIVYYSPDYDDVVREAGFTLVAQGKGDHWPWSVYSVGESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIVGGSTIQPERVDAAALRQLGDAMRKVVGSADPTPLADLLSGTPVDPDELTREVGADGR
+QALLDSGMAVDDGTTFSSPLRGHQLHGVVVLSDPDVEEEVQHRWYVDPLWEADLLIRLML
+RRGGARALDMGCGSGVLSLVLADRYESVLGVDVNPRAVALSRLNAALNGLTNVTFREGDM
+FEPAEGRFSRIVFNSPTNEEGNEFVDLLEAGEPILETFFRNVPRKLESGGIVEVNLAMND
+YPGDPFRERLADWLGLTENGLRVQIFTSQRRATESGGEWKRGWLVVAPGPVGLTEVEWPY
+HDRYEEDPDALLDGTDRLLRG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SodC C-methyltransferase </t>
+  </si>
+  <si>
+    <t>Serratia plymuthica WS3236</t>
+  </si>
+  <si>
+    <t>BGC0002283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSNLSEMMSPDPVYLQNLPYQVIRDSHTDSYEEKVVQTYCEEPEHWRKAIGETLLFQFGVYEDTAPAPALTPTSKLKPTAGLDESSVRYFEQQLFLAGVTGSDRPAMRRILDIGCGWGYILKHLAERYPECQRLDGVNVSAQQLNYCARFHAEQGLSGRINLFLCNAQDIGLLPDPDDLYDLVIIRGVISHFPNELYEKAMRALFNRVRPGGKVIISDNLYNVEPDRYQSDTPDIVDRLACRHQKTPVYFSQVLEDSGFTIKDFRVLPSNVDVAHWLMDSKANIERHFPAGVDGALEELRVLAENWSVALLKNKVSTYSVIACKK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duell ER, D’Agostino PM, Shapiro N et al (2019) Direct pathway cloning of the sodorifen biosynthetic gene cluster and recombinant generation of its product in E-coli. Microb Cell Factories 18:32. https://doi.org/10.1186/s12934-019-1080-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -287,6 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,7 +736,9 @@
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
@@ -637,7 +759,9 @@
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -723,26 +847,134 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J11" s="2"/>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/from paper/fromzhang2021.xlsx
+++ b/data/from paper/fromzhang2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC9AA30-01E6-45EB-8831-E92E6D8C7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAE2B4-65D1-4102-AD20-2E39A41A7794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32865" yWindow="2610" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34170" yWindow="3915" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -745,6 +745,9 @@
       <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="F2" s="5">
+        <v>9939943</v>
+      </c>
       <c r="H2" s="8" t="s">
         <v>29</v>
       </c>

--- a/data/from paper/fromzhang2021.xlsx
+++ b/data/from paper/fromzhang2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAE2B4-65D1-4102-AD20-2E39A41A7794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070ACCE2-3088-4950-A22B-05A76E66FC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34170" yWindow="3915" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>PDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,58 @@
   </si>
   <si>
     <t>Duell ER, D’Agostino PM, Shapiro N et al (2019) Direct pathway cloning of the sodorifen biosynthetic gene cluster and recombinant generation of its product in E-coli. Microb Cell Factories 18:32. https://doi.org/10.1186/s12934-019-1080-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inchikey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(C5=CC4=C3CCN(C3=C(C(=C4[N]5)OC)O)C(=O)N)(=O)N6C7=C(CC6)C8=C(C(=C7O)OC)[N]C(=C8)C(=O)[N]9C%10=C(C=C9)C%11=C(C(=C%10)O)N=CC%11C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZBCLYPZAWVDD-UHFFFAOYSA-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5TYQ;5U0N;5U0T;5U18;5U19;5U1E;5U1I;5U4T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(C3=CC2=C1CCN(C1=C(C(=C2[N]3)OC)O)C(=O)N)(=O)N4C5=C(CC4)C6=C(C(=C5O)OC)[N]C(=C6)C(=O)[N]7C%11=C(C(=C7)C[S](CC[C@@H](CC(=O)O)N)COC[C@@H]8[C@H]([C@H](C([H])(O8)[N]9(C=NC%10=C9N=CN=C%10N)[H])O)O)C%12=C(C(=C%11)O)N=CC%12C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COC3=C2C=CC1=CC(=C(C(=O)O)C(=C1C2=C(O)C4=C3C(C5=C(C4=O)C=CC=C5O)=O)O)CC(C)=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is the smile of product not substrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC3=C2C=CC1=CC(=C(C(=O)O)C(=C1C2=C(O)C4=C3OC5=C(C4=O)C=CC=C5O)O)CC(C)=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(C4=C3C(=CC2=CC1=C(C(=O)NC(=C1)C)C(=C2C3=C(O)C5=C4OC6=C(C5=O)C=CC(=C6O)Cl)O)O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O beside Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C@@H](C3OC(OC2C(N)CC(N)C(OC1OCC(O)C(N)C1O)C2O)C(N)C(O)C3O)(C)O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N(between two OH group)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -407,6 +459,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,6 +477,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5B450A-D429-C186-C8A8-E9EED70BFFE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10081261" y="0"/>
+          <a:ext cx="1600200" cy="2532081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,20 +791,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="14" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="8" width="14" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,20 +823,26 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
@@ -745,20 +855,23 @@
       <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5">
-        <v>9939943</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -771,17 +884,20 @@
       <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
@@ -794,17 +910,26 @@
       <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="M4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -817,17 +942,23 @@
       <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -840,17 +971,23 @@
       <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
@@ -863,17 +1000,23 @@
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>50</v>
@@ -884,17 +1027,17 @@
       <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
@@ -907,17 +1050,17 @@
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
@@ -930,17 +1073,17 @@
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
@@ -950,34 +1093,35 @@
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="2"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>